--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6170435</v>
+        <v>9.842197500000001</v>
       </c>
       <c r="H2">
-        <v>25.234087</v>
+        <v>19.684395</v>
       </c>
       <c r="I2">
-        <v>0.2088840483932193</v>
+        <v>0.2051050858187896</v>
       </c>
       <c r="J2">
-        <v>0.1671141605186442</v>
+        <v>0.1693311442190842</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>25.474391210501</v>
+        <v>106.6539200936175</v>
       </c>
       <c r="R2">
-        <v>101.897564842004</v>
+        <v>426.6156803744701</v>
       </c>
       <c r="S2">
-        <v>0.0008303878968605416</v>
+        <v>0.003788008417905912</v>
       </c>
       <c r="T2">
-        <v>0.0004523876477637978</v>
+        <v>0.002137461434357224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6170435</v>
+        <v>9.842197500000001</v>
       </c>
       <c r="H3">
-        <v>25.234087</v>
+        <v>19.684395</v>
       </c>
       <c r="I3">
-        <v>0.2088840483932193</v>
+        <v>0.2051050858187896</v>
       </c>
       <c r="J3">
-        <v>0.1671141605186442</v>
+        <v>0.1693311442190842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>1762.535578607858</v>
+        <v>1374.903975359625</v>
       </c>
       <c r="R3">
-        <v>10575.21347164715</v>
+        <v>8249.42385215775</v>
       </c>
       <c r="S3">
-        <v>0.05745331459221446</v>
+        <v>0.04883222133704049</v>
       </c>
       <c r="T3">
-        <v>0.04695005179423473</v>
+        <v>0.04133187351242281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6170435</v>
+        <v>9.842197500000001</v>
       </c>
       <c r="H4">
-        <v>25.234087</v>
+        <v>19.684395</v>
       </c>
       <c r="I4">
-        <v>0.2088840483932193</v>
+        <v>0.2051050858187896</v>
       </c>
       <c r="J4">
-        <v>0.1671141605186442</v>
+        <v>0.1693311442190842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>2351.247295148468</v>
+        <v>1477.5193498338</v>
       </c>
       <c r="R4">
-        <v>14107.48377089081</v>
+        <v>8865.1160990028</v>
       </c>
       <c r="S4">
-        <v>0.07664353115581186</v>
+        <v>0.05247679344440933</v>
       </c>
       <c r="T4">
-        <v>0.06263203059734407</v>
+        <v>0.04441666034423566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6170435</v>
+        <v>9.842197500000001</v>
       </c>
       <c r="H5">
-        <v>25.234087</v>
+        <v>19.684395</v>
       </c>
       <c r="I5">
-        <v>0.2088840483932193</v>
+        <v>0.2051050858187896</v>
       </c>
       <c r="J5">
-        <v>0.1671141605186442</v>
+        <v>0.1693311442190842</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>378.0485686211157</v>
+        <v>319.5685054375425</v>
       </c>
       <c r="R5">
-        <v>1512.194274484463</v>
+        <v>1278.27402175017</v>
       </c>
       <c r="S5">
-        <v>0.01232323682298716</v>
+        <v>0.01135005809099617</v>
       </c>
       <c r="T5">
-        <v>0.006713585470434242</v>
+        <v>0.006404503045067169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.6170435</v>
+        <v>9.842197500000001</v>
       </c>
       <c r="H6">
-        <v>25.234087</v>
+        <v>19.684395</v>
       </c>
       <c r="I6">
-        <v>0.2088840483932193</v>
+        <v>0.2051050858187896</v>
       </c>
       <c r="J6">
-        <v>0.1671141605186442</v>
+        <v>0.1693311442190842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>78.90339839728367</v>
+        <v>512.6824331831325</v>
       </c>
       <c r="R6">
-        <v>473.4203903837021</v>
+        <v>3076.094599098795</v>
       </c>
       <c r="S6">
-        <v>0.002572011496127967</v>
+        <v>0.01820885130997082</v>
       </c>
       <c r="T6">
-        <v>0.002101812120252135</v>
+        <v>0.01541207666871705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.6170435</v>
+        <v>9.842197500000001</v>
       </c>
       <c r="H7">
-        <v>25.234087</v>
+        <v>19.684395</v>
       </c>
       <c r="I7">
-        <v>0.2088840483932193</v>
+        <v>0.2051050858187896</v>
       </c>
       <c r="J7">
-        <v>0.1671141605186442</v>
+        <v>0.1693311442190842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>1811.873046814838</v>
+        <v>1983.5432050542</v>
       </c>
       <c r="R7">
-        <v>10871.23828088903</v>
+        <v>11901.2592303252</v>
       </c>
       <c r="S7">
-        <v>0.05906156642921732</v>
+        <v>0.07044915321846686</v>
       </c>
       <c r="T7">
-        <v>0.04826429288861521</v>
+        <v>0.05962856921428424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>60.058082</v>
       </c>
       <c r="I8">
-        <v>0.3314346266855077</v>
+        <v>0.4171906413759698</v>
       </c>
       <c r="J8">
-        <v>0.3977380261782364</v>
+        <v>0.5166378618526798</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>40.42001007659066</v>
+        <v>216.937659792742</v>
       </c>
       <c r="R8">
-        <v>242.520060459544</v>
+        <v>1301.625958756452</v>
       </c>
       <c r="S8">
-        <v>0.00131756974607292</v>
+        <v>0.007704936496796354</v>
       </c>
       <c r="T8">
-        <v>0.001076699721499148</v>
+        <v>0.006521502646968004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>60.058082</v>
       </c>
       <c r="I9">
-        <v>0.3314346266855077</v>
+        <v>0.4171906413759698</v>
       </c>
       <c r="J9">
-        <v>0.3977380261782364</v>
+        <v>0.5166378618526798</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>2796.600918113877</v>
@@ -1013,10 +1013,10 @@
         <v>25169.4082630249</v>
       </c>
       <c r="S9">
-        <v>0.09116070863328674</v>
+        <v>0.0993263802215622</v>
       </c>
       <c r="T9">
-        <v>0.1117429000130814</v>
+        <v>0.126105630811753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>60.058082</v>
       </c>
       <c r="I10">
-        <v>0.3314346266855077</v>
+        <v>0.4171906413759698</v>
       </c>
       <c r="J10">
-        <v>0.3977380261782364</v>
+        <v>0.5166378618526798</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>3730.70502753689</v>
+        <v>3005.324040317387</v>
       </c>
       <c r="R10">
-        <v>33576.345247832</v>
+        <v>27047.91636285648</v>
       </c>
       <c r="S10">
-        <v>0.1216096697277061</v>
+        <v>0.1067395624395669</v>
       </c>
       <c r="T10">
-        <v>0.1490666030216111</v>
+        <v>0.1355174710282055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>60.058082</v>
       </c>
       <c r="I11">
-        <v>0.3314346266855077</v>
+        <v>0.4171906413759698</v>
       </c>
       <c r="J11">
-        <v>0.3977380261782364</v>
+        <v>0.5166378618526798</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>599.8465999378697</v>
+        <v>650.0130858034287</v>
       </c>
       <c r="R11">
-        <v>3599.079599627218</v>
+        <v>3900.078514820572</v>
       </c>
       <c r="S11">
-        <v>0.01955317999340555</v>
+        <v>0.02308639981175651</v>
       </c>
       <c r="T11">
-        <v>0.01597858748356333</v>
+        <v>0.01954046182521198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>60.058082</v>
       </c>
       <c r="I12">
-        <v>0.3314346266855077</v>
+        <v>0.4171906413759698</v>
       </c>
       <c r="J12">
-        <v>0.3977380261782364</v>
+        <v>0.5166378618526798</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>125.1953827646635</v>
+        <v>1042.813308446347</v>
       </c>
       <c r="R12">
-        <v>1126.758444881972</v>
+        <v>9385.319776017121</v>
       </c>
       <c r="S12">
-        <v>0.004080989796048393</v>
+        <v>0.03703741585149167</v>
       </c>
       <c r="T12">
-        <v>0.005002392385613024</v>
+        <v>0.04702302328113692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>60.058082</v>
       </c>
       <c r="I13">
-        <v>0.3314346266855077</v>
+        <v>0.4171906413759698</v>
       </c>
       <c r="J13">
-        <v>0.3977380261782364</v>
+        <v>0.5166378618526798</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>2874.884279062559</v>
+        <v>4034.593577287591</v>
       </c>
       <c r="R13">
-        <v>25873.95851156304</v>
+        <v>36311.34219558832</v>
       </c>
       <c r="S13">
-        <v>0.09371250878898797</v>
+        <v>0.1432959465547962</v>
       </c>
       <c r="T13">
-        <v>0.1148708435528683</v>
+        <v>0.1819297722594043</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06182766666666666</v>
+        <v>0.177027</v>
       </c>
       <c r="H14">
-        <v>0.185483</v>
+        <v>0.531081</v>
       </c>
       <c r="I14">
-        <v>0.00102360060152284</v>
+        <v>0.003689129183522568</v>
       </c>
       <c r="J14">
-        <v>0.001228371600505288</v>
+        <v>0.004568520058808789</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>0.1248329030726666</v>
+        <v>1.918334143611</v>
       </c>
       <c r="R14">
-        <v>0.7489974184359999</v>
+        <v>11.510004861666</v>
       </c>
       <c r="S14">
-        <v>4.06917405738737E-06</v>
+        <v>6.813313451560283E-05</v>
       </c>
       <c r="T14">
-        <v>3.325272599328539E-06</v>
+        <v>5.766827763920957E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06182766666666666</v>
+        <v>0.177027</v>
       </c>
       <c r="H15">
-        <v>0.185483</v>
+        <v>0.531081</v>
       </c>
       <c r="I15">
-        <v>0.00102360060152284</v>
+        <v>0.003689129183522568</v>
       </c>
       <c r="J15">
-        <v>0.001228371600505288</v>
+        <v>0.004568520058808789</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>8.637004559927776</v>
+        <v>24.72975431005</v>
       </c>
       <c r="R15">
-        <v>77.73304103934998</v>
+        <v>222.56778879045</v>
       </c>
       <c r="S15">
-        <v>0.0002815401550690201</v>
+        <v>0.0008783223103003436</v>
       </c>
       <c r="T15">
-        <v>0.000345106064544758</v>
+        <v>0.001115125596537309</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06182766666666666</v>
+        <v>0.177027</v>
       </c>
       <c r="H16">
-        <v>0.185483</v>
+        <v>0.531081</v>
       </c>
       <c r="I16">
-        <v>0.00102360060152284</v>
+        <v>0.003689129183522568</v>
       </c>
       <c r="J16">
-        <v>0.001228371600505288</v>
+        <v>0.004568520058808789</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>11.52188577421811</v>
+        <v>26.57544902376</v>
       </c>
       <c r="R16">
-        <v>103.696971967963</v>
+        <v>239.17904121384</v>
       </c>
       <c r="S16">
-        <v>0.0003755785336285649</v>
+        <v>0.0009438755230306494</v>
       </c>
       <c r="T16">
-        <v>0.0004603763524825435</v>
+        <v>0.001198352521999128</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06182766666666666</v>
+        <v>0.177027</v>
       </c>
       <c r="H17">
-        <v>0.185483</v>
+        <v>0.531081</v>
       </c>
       <c r="I17">
-        <v>0.00102360060152284</v>
+        <v>0.003689129183522568</v>
       </c>
       <c r="J17">
-        <v>0.001228371600505288</v>
+        <v>0.004568520058808789</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>1.852562439411166</v>
+        <v>5.747929140021</v>
       </c>
       <c r="R17">
-        <v>11.115374636467</v>
+        <v>34.487574840126</v>
       </c>
       <c r="S17">
-        <v>6.038791722847294E-05</v>
+        <v>0.0002041481827279709</v>
       </c>
       <c r="T17">
-        <v>4.934816836498005E-05</v>
+        <v>0.0001727921981690226</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06182766666666666</v>
+        <v>0.177027</v>
       </c>
       <c r="H18">
-        <v>0.185483</v>
+        <v>0.531081</v>
       </c>
       <c r="I18">
-        <v>0.00102360060152284</v>
+        <v>0.003689129183522568</v>
       </c>
       <c r="J18">
-        <v>0.001228371600505288</v>
+        <v>0.004568520058808789</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>0.3866526270575555</v>
+        <v>9.221378975488999</v>
       </c>
       <c r="R18">
-        <v>3.479873643518</v>
+        <v>82.992410779401</v>
       </c>
       <c r="S18">
-        <v>1.260370303434672E-05</v>
+        <v>0.00032751408624448</v>
       </c>
       <c r="T18">
-        <v>1.544935695516651E-05</v>
+        <v>0.0004158147146152532</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06182766666666666</v>
+        <v>0.177027</v>
       </c>
       <c r="H19">
-        <v>0.185483</v>
+        <v>0.531081</v>
       </c>
       <c r="I19">
-        <v>0.00102360060152284</v>
+        <v>0.003689129183522568</v>
       </c>
       <c r="J19">
-        <v>0.001228371600505288</v>
+        <v>0.004568520058808789</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>8.878774395981555</v>
+        <v>35.67706327384</v>
       </c>
       <c r="R19">
-        <v>79.90896956383399</v>
+        <v>321.09356946456</v>
       </c>
       <c r="S19">
-        <v>0.0002894211185050474</v>
+        <v>0.001267135946703522</v>
       </c>
       <c r="T19">
-        <v>0.0003547663855585111</v>
+        <v>0.001608766749848867</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.590281</v>
+        <v>17.868236</v>
       </c>
       <c r="H20">
-        <v>35.18056199999999</v>
+        <v>35.736472</v>
       </c>
       <c r="I20">
-        <v>0.2912195006424703</v>
+        <v>0.3723625824629495</v>
       </c>
       <c r="J20">
-        <v>0.2329852506731911</v>
+        <v>0.3074159858158334</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>35.51558649192599</v>
+        <v>193.627227512748</v>
       </c>
       <c r="R20">
-        <v>142.062345967704</v>
+        <v>774.5089100509921</v>
       </c>
       <c r="S20">
-        <v>0.001157700410938263</v>
+        <v>0.006877023996026238</v>
       </c>
       <c r="T20">
-        <v>0.0006307044788340647</v>
+        <v>0.003880501823906031</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.590281</v>
+        <v>17.868236</v>
       </c>
       <c r="H21">
-        <v>35.18056199999999</v>
+        <v>35.736472</v>
       </c>
       <c r="I21">
-        <v>0.2912195006424703</v>
+        <v>0.3723625824629495</v>
       </c>
       <c r="J21">
-        <v>0.2329852506731911</v>
+        <v>0.3074159858158334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>2457.271079410149</v>
+        <v>2496.099952176733</v>
       </c>
       <c r="R21">
-        <v>14743.6264764609</v>
+        <v>14976.5997130604</v>
       </c>
       <c r="S21">
-        <v>0.08009958498268256</v>
+        <v>0.0886535405588513</v>
       </c>
       <c r="T21">
-        <v>0.06545626984841123</v>
+        <v>0.07503686755342186</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.590281</v>
+        <v>17.868236</v>
       </c>
       <c r="H22">
-        <v>35.18056199999999</v>
+        <v>35.736472</v>
       </c>
       <c r="I22">
-        <v>0.2912195006424703</v>
+        <v>0.3723625824629495</v>
       </c>
       <c r="J22">
-        <v>0.2329852506731911</v>
+        <v>0.3074159858158334</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>3278.034241710547</v>
+        <v>2682.39531236768</v>
       </c>
       <c r="R22">
-        <v>19668.20545026328</v>
+        <v>16094.37187420608</v>
       </c>
       <c r="S22">
-        <v>0.106853974931844</v>
+        <v>0.09527015991987142</v>
       </c>
       <c r="T22">
-        <v>0.08731958622540056</v>
+        <v>0.08063721230575224</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.590281</v>
+        <v>17.868236</v>
       </c>
       <c r="H23">
-        <v>35.18056199999999</v>
+        <v>35.736472</v>
       </c>
       <c r="I23">
-        <v>0.2912195006424703</v>
+        <v>0.3723625824629495</v>
       </c>
       <c r="J23">
-        <v>0.2329852506731911</v>
+        <v>0.3074159858158334</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>527.0632976491844</v>
+        <v>580.167739300628</v>
       </c>
       <c r="R23">
-        <v>2108.253190596738</v>
+        <v>2320.670957202512</v>
       </c>
       <c r="S23">
-        <v>0.01718066506990258</v>
+        <v>0.02060571499237126</v>
       </c>
       <c r="T23">
-        <v>0.009359867463598385</v>
+        <v>0.01162719726686838</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.590281</v>
+        <v>17.868236</v>
       </c>
       <c r="H24">
-        <v>35.18056199999999</v>
+        <v>35.736472</v>
       </c>
       <c r="I24">
-        <v>0.2912195006424703</v>
+        <v>0.3723625824629495</v>
       </c>
       <c r="J24">
-        <v>0.2329852506731911</v>
+        <v>0.3074159858158334</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>110.004610007342</v>
+        <v>930.7607075727185</v>
       </c>
       <c r="R24">
-        <v>660.0276600440519</v>
+        <v>5584.564245436311</v>
       </c>
       <c r="S24">
-        <v>0.00358581667346406</v>
+        <v>0.03305766344309467</v>
       </c>
       <c r="T24">
-        <v>0.002930279649463113</v>
+        <v>0.02798019681750239</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.590281</v>
+        <v>17.868236</v>
       </c>
       <c r="H25">
-        <v>35.18056199999999</v>
+        <v>35.736472</v>
       </c>
       <c r="I25">
-        <v>0.2912195006424703</v>
+        <v>0.3723625824629495</v>
       </c>
       <c r="J25">
-        <v>0.2329852506731911</v>
+        <v>0.3074159858158334</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>2526.055809334346</v>
+        <v>3601.067556722453</v>
       </c>
       <c r="R25">
-        <v>15156.33485600607</v>
+        <v>21606.40534033472</v>
       </c>
       <c r="S25">
-        <v>0.08234175857363883</v>
+        <v>0.1278984795527346</v>
       </c>
       <c r="T25">
-        <v>0.06728854300748373</v>
+        <v>0.1082540100483825</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>9.891719666666667</v>
+        <v>0.019859</v>
       </c>
       <c r="H26">
-        <v>29.675159</v>
+        <v>0.059577</v>
       </c>
       <c r="I26">
-        <v>0.1637643913603182</v>
+        <v>0.000413848827893907</v>
       </c>
       <c r="J26">
-        <v>0.1965254096390446</v>
+        <v>0.0005124994483772742</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>19.97183702610467</v>
+        <v>0.215199928587</v>
       </c>
       <c r="R26">
-        <v>119.831022156628</v>
+        <v>1.291199571522</v>
       </c>
       <c r="S26">
-        <v>0.00065102131813506</v>
+        <v>7.643217804884884E-06</v>
       </c>
       <c r="T26">
-        <v>0.0005320055913664201</v>
+        <v>6.469263590509147E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>9.891719666666667</v>
+        <v>0.019859</v>
       </c>
       <c r="H27">
-        <v>29.675159</v>
+        <v>0.059577</v>
       </c>
       <c r="I27">
-        <v>0.1637643913603182</v>
+        <v>0.000413848827893907</v>
       </c>
       <c r="J27">
-        <v>0.1965254096390446</v>
+        <v>0.0005124994483772742</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>1381.821965353061</v>
+        <v>2.774199364183333</v>
       </c>
       <c r="R27">
-        <v>12436.39768817755</v>
+        <v>24.96779427765</v>
       </c>
       <c r="S27">
-        <v>0.04504320539649363</v>
+        <v>9.853074819239168E-05</v>
       </c>
       <c r="T27">
-        <v>0.05521302403578742</v>
+        <v>0.000125095489510834</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>9.891719666666667</v>
+        <v>0.019859</v>
       </c>
       <c r="H28">
-        <v>29.675159</v>
+        <v>0.059577</v>
       </c>
       <c r="I28">
-        <v>0.1637643913603182</v>
+        <v>0.000413848827893907</v>
       </c>
       <c r="J28">
-        <v>0.1965254096390446</v>
+        <v>0.0005124994483772742</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>1843.369970993356</v>
+        <v>2.98125055592</v>
       </c>
       <c r="R28">
-        <v>16590.3297389402</v>
+        <v>26.83125500328</v>
       </c>
       <c r="S28">
-        <v>0.06008827063620123</v>
+        <v>0.0001058845487516913</v>
       </c>
       <c r="T28">
-        <v>0.07365495198891285</v>
+        <v>0.0001344319382601562</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>9.891719666666667</v>
+        <v>0.019859</v>
       </c>
       <c r="H29">
-        <v>29.675159</v>
+        <v>0.059577</v>
       </c>
       <c r="I29">
-        <v>0.1637643913603182</v>
+        <v>0.000413848827893907</v>
       </c>
       <c r="J29">
-        <v>0.1965254096390446</v>
+        <v>0.0005124994483772742</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>296.3888062353652</v>
+        <v>0.644806299557</v>
       </c>
       <c r="R29">
-        <v>1778.332837412191</v>
+        <v>3.868837797342</v>
       </c>
       <c r="S29">
-        <v>0.009661376220105206</v>
+        <v>2.290147130547754E-05</v>
       </c>
       <c r="T29">
-        <v>0.007895142641587386</v>
+        <v>1.938393727193377E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>9.891719666666667</v>
+        <v>0.019859</v>
       </c>
       <c r="H30">
-        <v>29.675159</v>
+        <v>0.059577</v>
       </c>
       <c r="I30">
-        <v>0.1637643913603182</v>
+        <v>0.000413848827893907</v>
       </c>
       <c r="J30">
-        <v>0.1965254096390446</v>
+        <v>0.0005124994483772742</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>61.85999895246822</v>
+        <v>1.034460082779666</v>
       </c>
       <c r="R30">
-        <v>556.739990572214</v>
+        <v>9.310140745016998</v>
       </c>
       <c r="S30">
-        <v>0.002016448362022511</v>
+        <v>3.674073581278068E-05</v>
       </c>
       <c r="T30">
-        <v>0.002471720449272019</v>
+        <v>4.664635573977028E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>9.891719666666667</v>
+        <v>0.019859</v>
       </c>
       <c r="H31">
-        <v>29.675159</v>
+        <v>0.059577</v>
       </c>
       <c r="I31">
-        <v>0.1637643913603182</v>
+        <v>0.000413848827893907</v>
       </c>
       <c r="J31">
-        <v>0.1965254096390446</v>
+        <v>0.0005124994483772742</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>1420.50237448112</v>
+        <v>4.002275356613333</v>
       </c>
       <c r="R31">
-        <v>12784.52137033008</v>
+        <v>36.02047820952</v>
       </c>
       <c r="S31">
-        <v>0.04630406942736059</v>
+        <v>0.0001421481060266809</v>
       </c>
       <c r="T31">
-        <v>0.05675856493211843</v>
+        <v>0.0001804724640040708</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2219073333333333</v>
+        <v>0.059441</v>
       </c>
       <c r="H32">
-        <v>0.665722</v>
+        <v>0.178323</v>
       </c>
       <c r="I32">
-        <v>0.003673832316961597</v>
+        <v>0.001238712330874753</v>
       </c>
       <c r="J32">
-        <v>0.004408781390378532</v>
+        <v>0.001533988605216454</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>0.4480411137373334</v>
+        <v>0.644126036313</v>
       </c>
       <c r="R32">
-        <v>2.688246682424</v>
+        <v>3.864756217878</v>
       </c>
       <c r="S32">
-        <v>1.460478152624249E-05</v>
+        <v>2.287731051614696E-05</v>
       </c>
       <c r="T32">
-        <v>1.193482489160836E-05</v>
+        <v>1.936348744062915E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2219073333333333</v>
+        <v>0.059441</v>
       </c>
       <c r="H33">
-        <v>0.665722</v>
+        <v>0.178323</v>
       </c>
       <c r="I33">
-        <v>0.003673832316961597</v>
+        <v>0.001238712330874753</v>
       </c>
       <c r="J33">
-        <v>0.004408781390378532</v>
+        <v>0.001533988605216454</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>30.99930424698888</v>
+        <v>8.303599597483332</v>
       </c>
       <c r="R33">
-        <v>278.9937382229</v>
+        <v>74.73239637735</v>
       </c>
       <c r="S33">
-        <v>0.001010483306356152</v>
+        <v>0.0002949174783878319</v>
       </c>
       <c r="T33">
-        <v>0.001238629413481912</v>
+        <v>0.0003744297795464769</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2219073333333333</v>
+        <v>0.059441</v>
       </c>
       <c r="H34">
-        <v>0.665722</v>
+        <v>0.178323</v>
       </c>
       <c r="I34">
-        <v>0.003673832316961597</v>
+        <v>0.001238712330874753</v>
       </c>
       <c r="J34">
-        <v>0.004408781390378532</v>
+        <v>0.001533988605216454</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>41.35350863089356</v>
+        <v>8.923335228080001</v>
       </c>
       <c r="R34">
-        <v>372.1815776780421</v>
+        <v>80.31001705272</v>
       </c>
       <c r="S34">
-        <v>0.0013479989679069</v>
+        <v>0.0003169285191776669</v>
       </c>
       <c r="T34">
-        <v>0.001652349089282489</v>
+        <v>0.0004023751871756859</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2219073333333333</v>
+        <v>0.059441</v>
       </c>
       <c r="H35">
-        <v>0.665722</v>
+        <v>0.178323</v>
       </c>
       <c r="I35">
-        <v>0.003673832316961597</v>
+        <v>0.001238712330874753</v>
       </c>
       <c r="J35">
-        <v>0.004408781390378532</v>
+        <v>0.001533988605216454</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>6.649081437596333</v>
+        <v>1.930003084343</v>
       </c>
       <c r="R35">
-        <v>39.894488625578</v>
+        <v>11.580018506058</v>
       </c>
       <c r="S35">
-        <v>0.0002167398900878974</v>
+        <v>6.85475782198948E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001771168319483254</v>
+        <v>5.801906517855959E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2219073333333333</v>
+        <v>0.059441</v>
       </c>
       <c r="H36">
-        <v>0.665722</v>
+        <v>0.178323</v>
       </c>
       <c r="I36">
-        <v>0.003673832316961597</v>
+        <v>0.001238712330874753</v>
       </c>
       <c r="J36">
-        <v>0.004408781390378532</v>
+        <v>0.001533988605216454</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>1.387745293045778</v>
+        <v>3.096295975653666</v>
       </c>
       <c r="R36">
-        <v>12.489707637412</v>
+        <v>27.866663780883</v>
       </c>
       <c r="S36">
-        <v>4.523628791550367E-05</v>
+        <v>0.0001099705965782515</v>
       </c>
       <c r="T36">
-        <v>5.544970057044235E-05</v>
+        <v>0.0001396196198966557</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2219073333333333</v>
+        <v>0.059441</v>
       </c>
       <c r="H37">
-        <v>0.665722</v>
+        <v>0.178323</v>
       </c>
       <c r="I37">
-        <v>0.003673832316961597</v>
+        <v>0.001238712330874753</v>
       </c>
       <c r="J37">
-        <v>0.004408781390378532</v>
+        <v>0.001533988605216454</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>31.86704683686178</v>
+        <v>11.97941736605333</v>
       </c>
       <c r="R37">
-        <v>286.803421531756</v>
+        <v>107.81475629448</v>
       </c>
       <c r="S37">
-        <v>0.001038769083168901</v>
+        <v>0.0004254708479949613</v>
       </c>
       <c r="T37">
-        <v>0.001273301530203755</v>
+        <v>0.0005401814659784467</v>
       </c>
     </row>
   </sheetData>
